--- a/clean_gii_data.xlsx
+++ b/clean_gii_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LindseyErinWallace/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E40824-FBDA-C94F-B165-958301FB91C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22719D3-3E08-F948-A177-E7ABC7953B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
   <si>
     <t>Norway</t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>pct_labor_force_men_2018</t>
   </si>
 </sst>
 </file>
@@ -994,7 +997,7 @@
   <dimension ref="A1:J196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="J206" sqref="J206"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -2358,7 +2361,7 @@
         <v>201</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14">
